--- a/admin_assets/exel-formate/SAMPLE_INCREMENT_LETTER.xlsx
+++ b/admin_assets/exel-formate/SAMPLE_INCREMENT_LETTER.xlsx
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +105,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -133,10 +139,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ1"/>
+  <dimension ref="A1:BQ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A2" sqref="A2:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -630,6 +637,9 @@
       <c r="BP1"/>
       <c r="BQ1"/>
     </row>
+    <row r="2" spans="1:69">
+      <c r="B2" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
